--- a/Code/Results/Cases/Case_13_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_13_0/res_bus/vm_pu.xlsx
@@ -433,49 +433,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9980342968504132</v>
+        <v>0.9952502744462589</v>
       </c>
       <c r="D2">
-        <v>1.020227969265646</v>
+        <v>1.01621767805021</v>
       </c>
       <c r="E2">
-        <v>1.002342692684421</v>
+        <v>1.001404801801032</v>
       </c>
       <c r="F2">
-        <v>1.01577072413432</v>
+        <v>1.014564675453792</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046782275101134</v>
+        <v>1.040685599070602</v>
       </c>
       <c r="J2">
-        <v>1.020273961143928</v>
+        <v>1.017573983053794</v>
       </c>
       <c r="K2">
-        <v>1.031412509617071</v>
+        <v>1.027455605478149</v>
       </c>
       <c r="L2">
-        <v>1.013769486278824</v>
+        <v>1.012844600136518</v>
       </c>
       <c r="M2">
-        <v>1.0270146344435</v>
+        <v>1.025824762866032</v>
       </c>
       <c r="N2">
-        <v>1.021722867195811</v>
+        <v>1.01901905482709</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029952583034312</v>
+        <v>1.029010864769672</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.033281564413829</v>
+        <v>1.03048361950987</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -486,49 +486,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004825848129953</v>
+        <v>1.001633405771969</v>
       </c>
       <c r="D3">
-        <v>1.024987077111015</v>
+        <v>1.020646595585746</v>
       </c>
       <c r="E3">
-        <v>1.008245117487966</v>
+        <v>1.006739449760888</v>
       </c>
       <c r="F3">
-        <v>1.020117966595953</v>
+        <v>1.018736861385258</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04870362624981</v>
+        <v>1.042166162127505</v>
       </c>
       <c r="J3">
-        <v>1.025185814633748</v>
+        <v>1.022079641324997</v>
       </c>
       <c r="K3">
-        <v>1.035309922471375</v>
+        <v>1.031021942939018</v>
       </c>
       <c r="L3">
-        <v>1.018773576396162</v>
+        <v>1.017286818254202</v>
       </c>
       <c r="M3">
-        <v>1.030499746114026</v>
+        <v>1.029135484850405</v>
       </c>
       <c r="N3">
-        <v>1.026641696080985</v>
+        <v>1.023531111649852</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.032710850935052</v>
+        <v>1.031631116947202</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036034737809099</v>
+        <v>1.033002699235149</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -539,49 +539,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009085692487845</v>
+        <v>1.00564718493473</v>
       </c>
       <c r="D4">
-        <v>1.02797409762945</v>
+        <v>1.023433356513541</v>
       </c>
       <c r="E4">
-        <v>1.011947723393485</v>
+        <v>1.010098507286725</v>
       </c>
       <c r="F4">
-        <v>1.0228611408862</v>
+        <v>1.021374877031036</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049892112496765</v>
+        <v>1.043083481789972</v>
       </c>
       <c r="J4">
-        <v>1.028259806579122</v>
+        <v>1.024907530020405</v>
       </c>
       <c r="K4">
-        <v>1.037746227913403</v>
+        <v>1.033256954509259</v>
       </c>
       <c r="L4">
-        <v>1.021904057246478</v>
+        <v>1.020076561155341</v>
       </c>
       <c r="M4">
-        <v>1.032691264740112</v>
+        <v>1.031221993205959</v>
       </c>
       <c r="N4">
-        <v>1.029720053447513</v>
+        <v>1.026363016271571</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.034445307860266</v>
+        <v>1.033282467115808</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037758335329352</v>
+        <v>1.034583979851597</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -592,49 +592,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010860465115729</v>
+        <v>1.007317243842678</v>
       </c>
       <c r="D5">
-        <v>1.029220952309471</v>
+        <v>1.024596332870148</v>
       </c>
       <c r="E5">
-        <v>1.013496114626757</v>
+        <v>1.011498687888952</v>
       </c>
       <c r="F5">
-        <v>1.024004762544205</v>
+        <v>1.022473794149526</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050385349758661</v>
+        <v>1.043464949914988</v>
       </c>
       <c r="J5">
-        <v>1.029542504734472</v>
+        <v>1.026085322703811</v>
       </c>
       <c r="K5">
-        <v>1.038762958080233</v>
+        <v>1.034189302970866</v>
       </c>
       <c r="L5">
-        <v>1.023213751498289</v>
+        <v>1.021239116279662</v>
       </c>
       <c r="M5">
-        <v>1.033604292718157</v>
+        <v>1.032090344978341</v>
       </c>
       <c r="N5">
-        <v>1.031004573181371</v>
+        <v>1.027542481555682</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.035167914055624</v>
+        <v>1.033969715959364</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038484441739408</v>
+        <v>1.035250457739958</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -645,49 +645,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011174354167958</v>
+        <v>1.007607360709688</v>
       </c>
       <c r="D6">
-        <v>1.029443916600213</v>
+        <v>1.024802166964096</v>
       </c>
       <c r="E6">
-        <v>1.013776903854914</v>
+        <v>1.011743820650546</v>
       </c>
       <c r="F6">
-        <v>1.024203495954631</v>
+        <v>1.022662350032283</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050474980873582</v>
+        <v>1.043534852743645</v>
       </c>
       <c r="J6">
-        <v>1.029773736564012</v>
+        <v>1.026292884709521</v>
       </c>
       <c r="K6">
-        <v>1.038947209148999</v>
+        <v>1.034356367523116</v>
       </c>
       <c r="L6">
-        <v>1.023454325624266</v>
+        <v>1.021444326309246</v>
       </c>
       <c r="M6">
-        <v>1.03376430367949</v>
+        <v>1.0322402102031</v>
       </c>
       <c r="N6">
-        <v>1.031236133386631</v>
+        <v>1.027750338323249</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.035294552937738</v>
+        <v>1.03408832531409</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038623484279727</v>
+        <v>1.035377387437106</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -698,49 +698,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009157878763059</v>
+        <v>1.005700128020808</v>
       </c>
       <c r="D7">
-        <v>1.028031265494133</v>
+        <v>1.023480440526689</v>
       </c>
       <c r="E7">
-        <v>1.012029831323299</v>
+        <v>1.010147931176541</v>
       </c>
       <c r="F7">
-        <v>1.02289738356868</v>
+        <v>1.021402809533337</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049919311533003</v>
+        <v>1.043106009176979</v>
       </c>
       <c r="J7">
-        <v>1.028324184982368</v>
+        <v>1.024953101612524</v>
       </c>
       <c r="K7">
-        <v>1.03779985939827</v>
+        <v>1.033300592762135</v>
       </c>
       <c r="L7">
-        <v>1.021982249600057</v>
+        <v>1.020122442395433</v>
       </c>
       <c r="M7">
-        <v>1.032724182413771</v>
+        <v>1.031246688676264</v>
       </c>
       <c r="N7">
-        <v>1.029784523275475</v>
+        <v>1.026408652580578</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.034471360212696</v>
+        <v>1.033302012122811</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037816422571041</v>
+        <v>1.034635088074948</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -751,49 +751,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000422998057984</v>
+        <v>0.9974721330780211</v>
       </c>
       <c r="D8">
-        <v>1.021909238034081</v>
+        <v>1.01777187737122</v>
       </c>
       <c r="E8">
-        <v>1.004444794149336</v>
+        <v>1.003267497367979</v>
       </c>
       <c r="F8">
-        <v>1.017282794957548</v>
+        <v>1.016005056278673</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047470227810799</v>
+        <v>1.041217182960833</v>
       </c>
       <c r="J8">
-        <v>1.02201893715299</v>
+        <v>1.019153918363407</v>
       </c>
       <c r="K8">
-        <v>1.032800392690885</v>
+        <v>1.028716380301553</v>
       </c>
       <c r="L8">
-        <v>1.015564892615663</v>
+        <v>1.014403389493971</v>
       </c>
       <c r="M8">
-        <v>1.028233640150378</v>
+        <v>1.026972506852579</v>
       </c>
       <c r="N8">
-        <v>1.023470321270958</v>
+        <v>1.020601233826072</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.030917358042473</v>
+        <v>1.029919241372446</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.034285978964664</v>
+        <v>1.031398253268764</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -804,49 +804,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9838299771539655</v>
+        <v>0.9819627840377358</v>
       </c>
       <c r="D9">
-        <v>1.010291247722007</v>
+        <v>1.0070144004791</v>
       </c>
       <c r="E9">
-        <v>0.9900072044196302</v>
+        <v>0.9903302692632074</v>
       </c>
       <c r="F9">
-        <v>1.006776813612212</v>
+        <v>1.005965755759694</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042674631510305</v>
+        <v>1.037531807375675</v>
       </c>
       <c r="J9">
-        <v>1.009966952910881</v>
+        <v>1.008168965446568</v>
       </c>
       <c r="K9">
-        <v>1.023219534411108</v>
+        <v>1.019994689887788</v>
       </c>
       <c r="L9">
-        <v>1.003264515415472</v>
+        <v>1.003582203849265</v>
       </c>
       <c r="M9">
-        <v>1.019760890331666</v>
+        <v>1.018962778619792</v>
       </c>
       <c r="N9">
-        <v>1.011401221828844</v>
+        <v>1.009600681016099</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.024211621336735</v>
+        <v>1.023579954425315</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.027508309629069</v>
+        <v>1.025228034361995</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -857,49 +857,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.972318172295267</v>
+        <v>0.9711934256921823</v>
       </c>
       <c r="D10">
-        <v>1.002263909463433</v>
+        <v>0.9995960947310283</v>
       </c>
       <c r="E10">
-        <v>0.9801160008376619</v>
+        <v>0.9814175584277126</v>
       </c>
       <c r="F10">
-        <v>0.9997968719731504</v>
+        <v>0.999307808338715</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039296535362348</v>
+        <v>1.03495523980686</v>
       </c>
       <c r="J10">
-        <v>1.00167482111987</v>
+        <v>1.000598486383003</v>
       </c>
       <c r="K10">
-        <v>1.016592408280079</v>
+        <v>1.01397264564365</v>
       </c>
       <c r="L10">
-        <v>0.9948537937777649</v>
+        <v>0.9961306305600816</v>
       </c>
       <c r="M10">
-        <v>1.014169794928025</v>
+        <v>1.013689571776602</v>
       </c>
       <c r="N10">
-        <v>1.003097314259568</v>
+        <v>1.002019451003917</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.019839155359093</v>
+        <v>1.019459104320567</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.022839413356037</v>
+        <v>1.0209870095158</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -910,49 +910,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9705277986284085</v>
+        <v>0.9688981845066371</v>
       </c>
       <c r="D11">
-        <v>1.001092198471612</v>
+        <v>0.9982662696000111</v>
       </c>
       <c r="E11">
-        <v>0.9795222450953965</v>
+        <v>0.9798358940300251</v>
       </c>
       <c r="F11">
-        <v>1.000389092270709</v>
+        <v>0.9996860962214442</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038989145004961</v>
+        <v>1.034786665299538</v>
       </c>
       <c r="J11">
-        <v>1.001180217054233</v>
+        <v>0.9996246225418255</v>
       </c>
       <c r="K11">
-        <v>1.015993546880683</v>
+        <v>1.013220955768027</v>
       </c>
       <c r="L11">
-        <v>0.9948409577526057</v>
+        <v>0.9951483647012451</v>
       </c>
       <c r="M11">
-        <v>1.015303674609895</v>
+        <v>1.014613934736765</v>
       </c>
       <c r="N11">
-        <v>1.002602007799426</v>
+        <v>1.001044204164382</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.021181608748391</v>
+        <v>1.020636032020053</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.022449386757721</v>
+        <v>1.02048900697856</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -963,49 +963,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.971002910046967</v>
+        <v>0.9689650297610367</v>
       </c>
       <c r="D12">
-        <v>1.001470170822472</v>
+        <v>0.9985034994369093</v>
       </c>
       <c r="E12">
-        <v>0.980619706701918</v>
+        <v>0.9801334383428966</v>
       </c>
       <c r="F12">
-        <v>1.001846826566303</v>
+        <v>1.000972780360167</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039284038361803</v>
+        <v>1.035095916038737</v>
       </c>
       <c r="J12">
-        <v>1.002087278051733</v>
+        <v>1.000143502796248</v>
       </c>
       <c r="K12">
-        <v>1.016569258777887</v>
+        <v>1.013659426305745</v>
       </c>
       <c r="L12">
-        <v>0.9961278658058315</v>
+        <v>0.9956514111962698</v>
       </c>
       <c r="M12">
-        <v>1.016938729620793</v>
+        <v>1.016081367134242</v>
       </c>
       <c r="N12">
-        <v>1.003510356927584</v>
+        <v>1.001563821288282</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.022806809282695</v>
+        <v>1.022128882596465</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.022856446569387</v>
+        <v>1.020799031294778</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1016,49 +1016,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.973295008747144</v>
+        <v>0.9708753776517994</v>
       </c>
       <c r="D13">
-        <v>1.003102440293322</v>
+        <v>0.9999865296545453</v>
       </c>
       <c r="E13">
-        <v>0.9831452414563635</v>
+        <v>0.9819165081262011</v>
       </c>
       <c r="F13">
-        <v>1.004103644712397</v>
+        <v>1.003070575244098</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040086511864439</v>
+        <v>1.035812884080664</v>
       </c>
       <c r="J13">
-        <v>1.004177273411232</v>
+        <v>1.001868274359607</v>
       </c>
       <c r="K13">
-        <v>1.018126607812662</v>
+        <v>1.015069952960299</v>
       </c>
       <c r="L13">
-        <v>0.9985574896464293</v>
+        <v>0.9973533281339785</v>
       </c>
       <c r="M13">
-        <v>1.019108874184586</v>
+        <v>1.018095346310777</v>
       </c>
       <c r="N13">
-        <v>1.005603320320219</v>
+        <v>1.003291042225094</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.02480313165926</v>
+        <v>1.024001929427508</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.023955045109004</v>
+        <v>1.021793816683504</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1069,49 +1069,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9756700848390266</v>
+        <v>0.9730146804919559</v>
       </c>
       <c r="D14">
-        <v>1.00477784803516</v>
+        <v>1.001567327135278</v>
       </c>
       <c r="E14">
-        <v>0.9855059882995306</v>
+        <v>0.9838087165388361</v>
       </c>
       <c r="F14">
-        <v>1.005998263165293</v>
+        <v>1.004867395892885</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040860224804682</v>
+        <v>1.036489804919773</v>
       </c>
       <c r="J14">
-        <v>1.006128409904641</v>
+        <v>1.00359215416946</v>
       </c>
       <c r="K14">
-        <v>1.019627071527976</v>
+        <v>1.016476676513812</v>
       </c>
       <c r="L14">
-        <v>1.00072385186049</v>
+        <v>0.9990599549952746</v>
       </c>
       <c r="M14">
-        <v>1.020824762322152</v>
+        <v>1.019714949540894</v>
       </c>
       <c r="N14">
-        <v>1.007557227651247</v>
+        <v>1.00501737014201</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.026334701447065</v>
+        <v>1.025457505081191</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.025017397503929</v>
+        <v>1.022789899916219</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1122,49 +1122,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9766890399037614</v>
+        <v>0.9739633418061392</v>
       </c>
       <c r="D15">
-        <v>1.005493490962952</v>
+        <v>1.002245536372675</v>
       </c>
       <c r="E15">
-        <v>0.9864437308592338</v>
+        <v>0.9846183154533834</v>
       </c>
       <c r="F15">
-        <v>1.006697998603396</v>
+        <v>1.005537779606074</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041176804988454</v>
+        <v>1.036754479496843</v>
       </c>
       <c r="J15">
-        <v>1.006907618658961</v>
+        <v>1.004302952886519</v>
       </c>
       <c r="K15">
-        <v>1.020241190380482</v>
+        <v>1.017053536189281</v>
       </c>
       <c r="L15">
-        <v>1.001552530203547</v>
+        <v>0.9997626790965886</v>
       </c>
       <c r="M15">
-        <v>1.02142346443611</v>
+        <v>1.020284660285416</v>
       </c>
       <c r="N15">
-        <v>1.008337542971374</v>
+        <v>1.005729178274777</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.02684579976786</v>
+        <v>1.025945712334456</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.025457561006672</v>
+        <v>1.023203739977078</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1175,49 +1175,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9810237937640245</v>
+        <v>0.9780998313693882</v>
       </c>
       <c r="D16">
-        <v>1.008510847687537</v>
+        <v>1.005056465116485</v>
       </c>
       <c r="E16">
-        <v>0.9900205441728958</v>
+        <v>0.9879879848850689</v>
       </c>
       <c r="F16">
-        <v>1.009205213021962</v>
+        <v>1.007960017663976</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042436497964476</v>
+        <v>1.037700131402276</v>
       </c>
       <c r="J16">
-        <v>1.009931801319519</v>
+        <v>1.007130459551467</v>
       </c>
       <c r="K16">
-        <v>1.022691886422416</v>
+        <v>1.019298608521678</v>
       </c>
       <c r="L16">
-        <v>1.004535133840102</v>
+        <v>1.002540233822447</v>
       </c>
       <c r="M16">
-        <v>1.023374034552505</v>
+        <v>1.022150763654738</v>
       </c>
       <c r="N16">
-        <v>1.01136602031819</v>
+        <v>1.008560700323508</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028348437766934</v>
+        <v>1.027381560721187</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027193523185896</v>
+        <v>1.024794337391042</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1228,49 +1228,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9831433025220521</v>
+        <v>0.9801732310916691</v>
       </c>
       <c r="D17">
-        <v>1.009975796202421</v>
+        <v>1.006401237956918</v>
       </c>
       <c r="E17">
-        <v>0.9915735396652389</v>
+        <v>0.9896027508079814</v>
       </c>
       <c r="F17">
-        <v>1.01015738091686</v>
+        <v>1.008890460963101</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043007774849729</v>
+        <v>1.038075611391665</v>
       </c>
       <c r="J17">
-        <v>1.011265033981812</v>
+        <v>1.008415237707525</v>
       </c>
       <c r="K17">
-        <v>1.023811145572111</v>
+        <v>1.020297953532623</v>
       </c>
       <c r="L17">
-        <v>1.00573094619524</v>
+        <v>1.003795570938706</v>
       </c>
       <c r="M17">
-        <v>1.023989627906372</v>
+        <v>1.022744383409039</v>
       </c>
       <c r="N17">
-        <v>1.012701146323787</v>
+        <v>1.009847303011914</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028704746626985</v>
+        <v>1.02772040175753</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027987507225219</v>
+        <v>1.025503550892892</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1281,49 +1281,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9834017480067445</v>
+        <v>0.9805753817578861</v>
       </c>
       <c r="D18">
-        <v>1.01012523344355</v>
+        <v>1.006534394317623</v>
       </c>
       <c r="E18">
-        <v>0.9913466192668645</v>
+        <v>0.9897679104265064</v>
       </c>
       <c r="F18">
-        <v>1.009640145389163</v>
+        <v>1.008430456386381</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042983199082719</v>
+        <v>1.037958918828612</v>
       </c>
       <c r="J18">
-        <v>1.011106822759706</v>
+        <v>1.008392859951331</v>
       </c>
       <c r="K18">
-        <v>1.023771451365815</v>
+        <v>1.020241280867451</v>
       </c>
       <c r="L18">
-        <v>1.005316412022429</v>
+        <v>1.003765631813137</v>
       </c>
       <c r="M18">
-        <v>1.023294526548452</v>
+        <v>1.022105238768414</v>
       </c>
       <c r="N18">
-        <v>1.012542710423599</v>
+        <v>1.00982489347674</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.027914880964076</v>
+        <v>1.026974569046101</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027947675655586</v>
+        <v>1.025451674801169</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1334,49 +1334,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.981940469624128</v>
+        <v>0.9794833323881962</v>
       </c>
       <c r="D19">
-        <v>1.009065968647237</v>
+        <v>1.00561023245966</v>
       </c>
       <c r="E19">
-        <v>0.9894995744642795</v>
+        <v>0.9886499135336199</v>
       </c>
       <c r="F19">
-        <v>1.007676678029154</v>
+        <v>1.006619480660289</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042412717118881</v>
+        <v>1.037427519166324</v>
       </c>
       <c r="J19">
-        <v>1.009564812533685</v>
+        <v>1.007205178643713</v>
       </c>
       <c r="K19">
-        <v>1.022666311329779</v>
+        <v>1.019268795974836</v>
       </c>
       <c r="L19">
-        <v>1.003436522840021</v>
+        <v>1.002601870325101</v>
       </c>
       <c r="M19">
-        <v>1.021300365010518</v>
+        <v>1.020260987462317</v>
       </c>
       <c r="N19">
-        <v>1.010998510366185</v>
+        <v>1.008635525525436</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.02600796948476</v>
+        <v>1.025185908344122</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027172763870868</v>
+        <v>1.024770573158477</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1387,49 +1387,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9755030342653205</v>
+        <v>0.9741088336031942</v>
       </c>
       <c r="D20">
-        <v>1.004498249179649</v>
+        <v>1.001631579293798</v>
       </c>
       <c r="E20">
-        <v>0.9829224150741084</v>
+        <v>0.9838457927816906</v>
       </c>
       <c r="F20">
-        <v>1.001703062901288</v>
+        <v>1.001097015349709</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040254977949104</v>
+        <v>1.035688735378662</v>
       </c>
       <c r="J20">
-        <v>1.004012063854953</v>
+        <v>1.002675637441912</v>
       </c>
       <c r="K20">
-        <v>1.018462460782617</v>
+        <v>1.015645799889527</v>
       </c>
       <c r="L20">
-        <v>0.9972723505243904</v>
+        <v>0.9981787691336284</v>
       </c>
       <c r="M20">
-        <v>1.015716031959096</v>
+        <v>1.015120602453908</v>
       </c>
       <c r="N20">
-        <v>1.005437876147421</v>
+        <v>1.004099551855582</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.021052077128908</v>
+        <v>1.020580845662565</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.024204425267942</v>
+        <v>1.022212920284423</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1440,49 +1440,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9660322925268653</v>
+        <v>0.9654131761631811</v>
       </c>
       <c r="D21">
-        <v>0.9978884357112578</v>
+        <v>0.9956035640611864</v>
       </c>
       <c r="E21">
-        <v>0.9746074984499109</v>
+        <v>0.9766046849266961</v>
       </c>
       <c r="F21">
-        <v>0.9956723945727689</v>
+        <v>0.9954026363338381</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037400751528685</v>
+        <v>1.033510283988585</v>
       </c>
       <c r="J21">
-        <v>0.9970221897044727</v>
+        <v>0.9964316732129064</v>
       </c>
       <c r="K21">
-        <v>1.012909923056339</v>
+        <v>1.010668709731324</v>
       </c>
       <c r="L21">
-        <v>0.9900864551886294</v>
+        <v>0.9920432708988645</v>
       </c>
       <c r="M21">
-        <v>1.010736221228123</v>
+        <v>1.010471633793799</v>
       </c>
       <c r="N21">
-        <v>0.9984380755738967</v>
+        <v>0.9978467204811794</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.017068996591379</v>
+        <v>1.016859586234707</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.020281785252614</v>
+        <v>1.018697138985395</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1493,49 +1493,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9599724758478506</v>
+        <v>0.9598620800228568</v>
       </c>
       <c r="D22">
-        <v>0.9936660442728846</v>
+        <v>0.9917649385706827</v>
       </c>
       <c r="E22">
-        <v>0.9693143804275064</v>
+        <v>0.97200206607797</v>
       </c>
       <c r="F22">
-        <v>0.9919599863038132</v>
+        <v>0.9919118400087666</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03556542043094</v>
+        <v>1.032116613367833</v>
       </c>
       <c r="J22">
-        <v>0.9925758973997013</v>
+        <v>0.9924709516625573</v>
       </c>
       <c r="K22">
-        <v>1.009364031069235</v>
+        <v>1.007501318090803</v>
       </c>
       <c r="L22">
-        <v>0.9855192599423426</v>
+        <v>0.9881493473653098</v>
       </c>
       <c r="M22">
-        <v>1.00769241792275</v>
+        <v>1.007645245951958</v>
       </c>
       <c r="N22">
-        <v>0.9939854690240557</v>
+        <v>0.9938803742519278</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.014659944167828</v>
+        <v>1.0146226093105</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.017760831068086</v>
+        <v>1.016443769522117</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1546,49 +1546,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9631470756200529</v>
+        <v>0.9627895986948318</v>
       </c>
       <c r="D23">
-        <v>0.9958718579157801</v>
+        <v>0.9937783009631265</v>
       </c>
       <c r="E23">
-        <v>0.9720614375993994</v>
+        <v>0.9744220245630342</v>
       </c>
       <c r="F23">
-        <v>0.9939130675127756</v>
+        <v>0.9937572405413511</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036522593768621</v>
+        <v>1.032841982962497</v>
       </c>
       <c r="J23">
-        <v>0.9948920919012862</v>
+        <v>0.9945516569140939</v>
       </c>
       <c r="K23">
-        <v>1.011210820940264</v>
+        <v>1.009158331296115</v>
       </c>
       <c r="L23">
-        <v>0.9878812614800254</v>
+        <v>0.9901927893773979</v>
       </c>
       <c r="M23">
-        <v>1.009290447419173</v>
+        <v>1.009137685150683</v>
       </c>
       <c r="N23">
-        <v>0.9963049527875041</v>
+        <v>0.9959640343435817</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.015924723719002</v>
+        <v>1.015803818300413</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.019056795469415</v>
+        <v>1.017605534470805</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1599,49 +1599,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9752437610463742</v>
+        <v>0.9739579357475667</v>
       </c>
       <c r="D24">
-        <v>1.00430233368467</v>
+        <v>1.00149067662107</v>
       </c>
       <c r="E24">
-        <v>0.9825771743111151</v>
+        <v>0.9836837083422951</v>
       </c>
       <c r="F24">
-        <v>1.001393753205033</v>
+        <v>1.000834367286103</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040147545907646</v>
+        <v>1.035601080865991</v>
       </c>
       <c r="J24">
-        <v>1.003729251431279</v>
+        <v>1.00249666588453</v>
       </c>
       <c r="K24">
-        <v>1.018254314441634</v>
+        <v>1.015491664781398</v>
       </c>
       <c r="L24">
-        <v>0.9969173222465472</v>
+        <v>0.9980035459513107</v>
       </c>
       <c r="M24">
-        <v>1.015396437104479</v>
+        <v>1.014846846326379</v>
       </c>
       <c r="N24">
-        <v>1.005154662097665</v>
+        <v>1.00392032613806</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.020757359972507</v>
+        <v>1.020322383222802</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.024029410392794</v>
+        <v>1.022076018755554</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1652,49 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9883551633266556</v>
+        <v>0.9861497147501261</v>
       </c>
       <c r="D25">
-        <v>1.013465881755529</v>
+        <v>1.009932271583646</v>
       </c>
       <c r="E25">
-        <v>0.9939805336729691</v>
+        <v>0.9938269272660375</v>
       </c>
       <c r="F25">
-        <v>1.009606546978452</v>
+        <v>1.008649341866482</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044007937314003</v>
+        <v>1.038556288604603</v>
       </c>
       <c r="J25">
-        <v>1.013280879880571</v>
+        <v>1.011152358801589</v>
       </c>
       <c r="K25">
-        <v>1.025858692800032</v>
+        <v>1.022378333906418</v>
       </c>
       <c r="L25">
-        <v>1.006673018389107</v>
+        <v>1.00652183411184</v>
       </c>
       <c r="M25">
-        <v>1.022057541857141</v>
+        <v>1.021114855517548</v>
       </c>
       <c r="N25">
-        <v>1.014719854954943</v>
+        <v>1.012588311131884</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026029306932358</v>
+        <v>1.025283218109539</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029403318442948</v>
+        <v>1.026942479019218</v>
       </c>
     </row>
   </sheetData>
